--- a/database/imports/products.xlsx
+++ b/database/imports/products.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Điện thoại iPhone 15 Pro Max</t>
   </si>
   <si>
-    <t xml:space="preserve">smartphone</t>
+    <t xml:space="preserve">Điện thoại thông minh</t>
   </si>
   <si>
     <t xml:space="preserve">Apple</t>
@@ -352,10 +352,10 @@
   <dimension ref="A1:T1001"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="M26" activeCellId="0" sqref="M26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.8125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.83203125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="2.88"/>
